--- a/src/statics/vac.xlsx
+++ b/src/statics/vac.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Инструкция_для_прогера" sheetId="2" r:id="rId2"/>
+    <sheet name="ПРИМЕР" sheetId="5" r:id="rId2"/>
+    <sheet name="Подсказки" sheetId="3" r:id="rId3"/>
+    <sheet name="db" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>Вакансия</t>
   </si>
@@ -47,110 +49,203 @@
     <t>$</t>
   </si>
   <si>
-    <t>Пол</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>Туркменский</t>
   </si>
   <si>
     <t>Образование</t>
   </si>
   <si>
-    <t>Должно считывать любой алфавит (даже буквы вроде Ş Ň Ö)</t>
-  </si>
-  <si>
-    <t>m / м</t>
-  </si>
-  <si>
-    <t>на сайте должно быть написано как - манат</t>
-  </si>
-  <si>
-    <t>Доллары / в долларах</t>
-  </si>
-  <si>
-    <t>мужчина</t>
-  </si>
-  <si>
-    <t>женщина</t>
-  </si>
-  <si>
     <t>Высшее</t>
   </si>
   <si>
     <t>Миним стаж</t>
   </si>
   <si>
-    <t>если заполнены оба столба, то с - до, если только 2й стол то это фикс ЗП</t>
-  </si>
-  <si>
-    <t>Если написали одну и туже цифру в оба столба то это тоже фикс ЗП</t>
-  </si>
-  <si>
     <t>Город</t>
   </si>
   <si>
     <t>Ашхабад</t>
   </si>
   <si>
+    <t>временная</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Занятость</t>
+  </si>
+  <si>
+    <t>Режим работы</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>Пишется название вакансии</t>
+  </si>
+  <si>
+    <t>ОТ</t>
+  </si>
+  <si>
+    <t>ДО</t>
+  </si>
+  <si>
+    <t>Если зарплата фиксированная то достаточно указать ее в одной из ячеек</t>
+  </si>
+  <si>
+    <t>m - манат</t>
+  </si>
+  <si>
+    <t>$ - доллар</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Почтовый адрес</t>
+  </si>
+  <si>
+    <t>Дополнительная информация от Работодателя</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>5/2  - Будет значит 5 рабочих дней и 2 нерабочих. 6/2 - 2/2 и тд.</t>
+  </si>
+  <si>
+    <t>Пишется в произвольной форме, высшее, среднее, без образования и т.д.</t>
+  </si>
+  <si>
+    <t>Пишется минимальный стаж в виде простого числа, к примеру 5.</t>
+  </si>
+  <si>
+    <t>Название города</t>
+  </si>
+  <si>
+    <t>Есть 2 варианта, Постоянная и Временная. Если написать что то другое то будет определено как Временная</t>
+  </si>
+  <si>
+    <t>В каждой из 3-х ячеек можно указать разные языки</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Торговый агент</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Требуется молодой энергичный человек в сферу розничной торговли</t>
+  </si>
+  <si>
     <t>постоянная</t>
   </si>
   <si>
-    <t>временная</t>
-  </si>
-  <si>
-    <t>Военый</t>
-  </si>
-  <si>
-    <t>Земелкоп</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>Чото там чото чтоото</t>
-  </si>
-  <si>
-    <t>Тестовая вакансия</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>world@gmail.com</t>
-  </si>
-  <si>
-    <t>Rorld@gmail.com</t>
-  </si>
-  <si>
-    <t>Занятость</t>
-  </si>
-  <si>
-    <t>Режим работы</t>
-  </si>
-  <si>
-    <t>5/2</t>
-  </si>
-  <si>
-    <t>6/1</t>
-  </si>
-  <si>
-    <t>dvorkik</t>
+    <t>Переводчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В строительную компанию требуется опытный бухгалтер </t>
+  </si>
+  <si>
+    <t>Нужен переводчик синхронного письменного перевода</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>15/15</t>
+  </si>
+  <si>
+    <t>Другое</t>
+  </si>
+  <si>
+    <t>ПРОФЕССИЯ</t>
+  </si>
+  <si>
+    <t>Бух учет, финансы</t>
+  </si>
+  <si>
+    <t>Гос служба</t>
+  </si>
+  <si>
+    <t>Дизайн, полиграфия</t>
+  </si>
+  <si>
+    <t>ИТ, Интернет</t>
+  </si>
+  <si>
+    <t>Красота, фитнес, спорт</t>
+  </si>
+  <si>
+    <t>Логистика, склад</t>
+  </si>
+  <si>
+    <t>Маркетинг, реклама</t>
+  </si>
+  <si>
+    <t>Медицина, Фармация, Ветеринария</t>
+  </si>
+  <si>
+    <t>Недвижимость, риэлтерские услуги</t>
+  </si>
+  <si>
+    <t>Нефть и Газ</t>
+  </si>
+  <si>
+    <t>Образование, репетиторство</t>
+  </si>
+  <si>
+    <t>Производство, агропром</t>
+  </si>
+  <si>
+    <t>Рестораны, питание</t>
+  </si>
+  <si>
+    <t>Строительство</t>
+  </si>
+  <si>
+    <t>Торговля</t>
+  </si>
+  <si>
+    <t>Транспорт, автосервис</t>
+  </si>
+  <si>
+    <t>Туризм, гостиницы</t>
+  </si>
+  <si>
+    <t>Юриспруденция</t>
+  </si>
+  <si>
+    <t>HR, кадры</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +270,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,36 +357,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF8645FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -250,77 +416,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,32 +444,71 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -369,6 +519,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF8645FF"/>
+      <color rgb="FF2E2768"/>
+      <color rgb="FFC4003D"/>
+      <color rgb="FF810027"/>
       <color rgb="FF3399FF"/>
     </mruColors>
   </colors>
@@ -670,371 +824,1570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <sheetPr>
+    <tabColor rgb="FF8645FF"/>
+  </sheetPr>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
-    <col min="14" max="15" width="10.85546875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="26" t="s">
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6">
-        <v>850</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1000</v>
-      </c>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>458412</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="6">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6">
-        <v>9</v>
-      </c>
-      <c r="K2" s="6">
-        <v>6</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6">
-        <v>5</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6">
-        <v>920</v>
-      </c>
-      <c r="C3" s="6">
-        <v>200</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
-        <v>475485</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6">
-        <v>77</v>
-      </c>
-      <c r="J3" s="6">
-        <v>9</v>
-      </c>
-      <c r="K3" s="6">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6">
-        <v>920</v>
-      </c>
-      <c r="C4" s="6">
-        <v>200</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>475485</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6">
-        <v>77</v>
-      </c>
-      <c r="J4" s="6">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6">
-        <v>8</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$D$2:$D$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="P1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+    </row>
+    <row r="2" spans="1:20" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>448412</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>448412</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>700</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>448412</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R1:T1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="test@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>db!$D$2:$D$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="M1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" s="20" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:19" s="20" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q3:S3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="H69f+luaL01zBN2W+wLADnsGeXaomOby7gIH4P/AuJpIC4xOgo0T9pn4eCr32BUs8oQ5h+pql4zDkl11ugyY6w==" saltValue="oISj5Yqqhsmz32UC8kY52A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/statics/vac.xlsx
+++ b/src/statics/vac.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="579"/>
@@ -512,8 +512,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -538,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,8 +829,9 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2234,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
